--- a/untuk_cs/data_blast/data_each_crm/Firda/Refill_data_2_WA_1095_Firda.xlsx
+++ b/untuk_cs/data_blast/data_each_crm/Firda/Refill_data_2_WA_1095_Firda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\isra holding company\untuk_cs\data_blast\data_each_crm\Firda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1905322-48D0-462C-8F7C-617F29DA8954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DAE3BE-9218-47EF-BB30-63892FB76BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Ahmad</t>
   </si>
   <si>
-    <t>Refill_WA_1095_2nd</t>
-  </si>
-  <si>
     <t>Suliah</t>
   </si>
   <si>
@@ -670,6 +667,9 @@
   </si>
   <si>
     <t>Lia L</t>
+  </si>
+  <si>
+    <t>Refill_WA_1095</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5">
         <v>6282113020771</v>
@@ -1180,10 +1180,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5">
         <v>6283843522157</v>
@@ -1194,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1208,10 +1208,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="5">
         <v>6282226250773</v>
@@ -1222,10 +1222,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
       </c>
       <c r="D6" s="5">
         <v>628117879002</v>
@@ -1236,10 +1236,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5">
         <v>6285930225623</v>
@@ -1250,10 +1250,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5">
         <v>6282330777305</v>
@@ -1264,10 +1264,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="5">
         <v>6285641824653</v>
@@ -1278,10 +1278,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="5">
         <v>6281285332859</v>
@@ -1292,10 +1292,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="5">
         <v>6282350066185</v>
@@ -1306,10 +1306,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="5">
         <v>6282274616321</v>
@@ -1320,10 +1320,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="5">
         <v>6289699709585</v>
@@ -1334,10 +1334,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="5">
         <v>6281282678120</v>
@@ -1348,10 +1348,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="5">
         <v>6287880069004</v>
@@ -1362,10 +1362,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D16" s="5">
         <v>6281210394939</v>
@@ -1376,10 +1376,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="5">
         <v>628973631112</v>
@@ -1390,10 +1390,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="5">
         <v>6281283396993</v>
@@ -1404,10 +1404,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" s="5">
         <v>6285298883699</v>
@@ -1418,10 +1418,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D20" s="5">
         <v>628179266261</v>
@@ -1432,10 +1432,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="5">
         <v>6282130724792</v>
@@ -1446,10 +1446,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="5">
         <v>6282322890646</v>
@@ -1460,10 +1460,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D23" s="5">
         <v>62818640073</v>
@@ -1474,10 +1474,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="5">
         <v>6287818384372</v>
@@ -1488,10 +1488,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D25" s="5">
         <v>6281379035718</v>
@@ -1502,10 +1502,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="5">
         <v>6285398535688</v>
@@ -1516,10 +1516,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="5">
         <v>6285603018280</v>
@@ -1530,10 +1530,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="5">
         <v>6282296747866</v>
@@ -1544,10 +1544,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="5">
         <v>6281350003320</v>
@@ -1558,7 +1558,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1572,10 +1572,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="5">
         <v>6282196767677</v>
@@ -1586,10 +1586,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="5">
         <v>6282335544579</v>
@@ -1600,7 +1600,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -1614,10 +1614,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="5">
         <v>6287878500068</v>
@@ -1628,10 +1628,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D35" s="5">
         <v>6285828190800</v>
@@ -1642,10 +1642,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="5">
         <v>6281226380099</v>
@@ -1656,10 +1656,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="5">
         <v>6281210382007</v>
@@ -1670,7 +1670,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1684,10 +1684,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" s="5">
         <v>6282130381551</v>
@@ -1698,10 +1698,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" s="5">
         <v>6281280053131</v>
@@ -1712,10 +1712,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="5">
         <v>6285814001628</v>
@@ -1726,10 +1726,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="5">
         <v>6281330397272</v>
@@ -1740,10 +1740,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="5">
         <v>6281545860215</v>
@@ -1754,10 +1754,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" s="5">
         <v>628123303327</v>
@@ -1768,7 +1768,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1782,10 +1782,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="5">
         <v>6285255988651</v>
@@ -1796,10 +1796,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="5">
         <v>6282143347959</v>
@@ -1810,10 +1810,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="5">
         <v>628127288322</v>
@@ -1824,10 +1824,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="5">
         <v>6281316398514</v>
@@ -1838,10 +1838,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="5">
         <v>6285256456503</v>
@@ -1852,10 +1852,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51" s="5">
         <v>6282339266337</v>
@@ -1866,10 +1866,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" s="5">
         <v>6281264121756</v>
@@ -1880,10 +1880,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D53" s="5">
         <v>6289646363133</v>
@@ -1894,7 +1894,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1908,10 +1908,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D55" s="5">
         <v>6281284861287</v>
@@ -1922,10 +1922,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D56" s="5">
         <v>6289654237765</v>
@@ -1936,7 +1936,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -1950,10 +1950,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58" s="5">
         <v>6281237006000</v>
@@ -1964,10 +1964,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D59" s="5">
         <v>6282329296198</v>
@@ -1978,7 +1978,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1992,10 +1992,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D61" s="5">
         <v>6281328021193</v>
@@ -2006,7 +2006,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2020,10 +2020,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D63" s="5">
         <v>6285293347250</v>
@@ -2034,10 +2034,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D64" s="5">
         <v>6285242116006</v>
@@ -2048,10 +2048,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="5">
         <v>628126731317</v>
@@ -2062,10 +2062,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D66" s="5">
         <v>6281261486300</v>
@@ -2076,7 +2076,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -2090,10 +2090,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" s="5">
         <v>6281363423577</v>
@@ -2104,7 +2104,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2118,10 +2118,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D70" s="5">
         <v>6282176948835</v>
@@ -2132,10 +2132,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D71" s="5">
         <v>6282154545995</v>
@@ -2146,10 +2146,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D72" s="5">
         <v>6283870840043</v>
@@ -2160,10 +2160,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D73" s="5">
         <v>6282233005561</v>
@@ -2174,10 +2174,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" s="5">
         <v>6281257779592</v>
@@ -2188,10 +2188,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D75" s="5">
         <v>6285751311711</v>
@@ -2202,10 +2202,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D76" s="5">
         <v>6285895476158</v>
@@ -2216,10 +2216,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D77" s="5">
         <v>6285223000414</v>
@@ -2230,10 +2230,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D78" s="5">
         <v>6282298391976</v>
@@ -2244,10 +2244,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D79" s="5">
         <v>6281240058725</v>
@@ -2258,10 +2258,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D80" s="5">
         <v>628114700445</v>
@@ -2272,10 +2272,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D81" s="5">
         <v>6282252033657</v>
@@ -2286,10 +2286,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D82" s="5">
         <v>628889588624</v>
@@ -2300,10 +2300,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D83" s="5">
         <v>6285206880002</v>
@@ -2314,10 +2314,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84" s="5">
         <v>6289604799852</v>
@@ -2328,10 +2328,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D85" s="5">
         <v>6281215015755</v>
@@ -2342,10 +2342,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D86" s="5">
         <v>628985400054</v>
@@ -2356,10 +2356,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C87" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D87" s="5">
         <v>6282144777536</v>
@@ -2370,10 +2370,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D88" s="5">
         <v>6281230362586</v>
@@ -2384,10 +2384,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D89" s="5">
         <v>6285702043364</v>
@@ -2398,10 +2398,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D90" s="5">
         <v>6281378981377</v>
@@ -2412,10 +2412,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D91" s="5">
         <v>6281235903970</v>
@@ -2426,10 +2426,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D92" s="5">
         <v>628119995765</v>
@@ -2440,7 +2440,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2454,10 +2454,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C94" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D94" s="5">
         <v>6281282317437</v>
@@ -2468,10 +2468,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D95" s="5">
         <v>6281374182888</v>
@@ -2482,10 +2482,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D96" s="5">
         <v>6281278667382</v>
@@ -2496,10 +2496,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C97" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D97" s="5">
         <v>6285715706606</v>
@@ -2510,10 +2510,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D98" s="5">
         <v>6281334871646</v>
@@ -2524,10 +2524,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D99" s="5">
         <v>6289650222156</v>
@@ -2538,10 +2538,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D100" s="5">
         <v>6281214305512</v>
@@ -2552,10 +2552,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D101" s="5">
         <v>6285299158067</v>
@@ -2566,10 +2566,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D102" s="5">
         <v>6281375722117</v>
@@ -2580,10 +2580,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D103" s="5">
         <v>6282257993095</v>
@@ -2594,10 +2594,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C104" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D104" s="5">
         <v>62818221042</v>
@@ -2608,10 +2608,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D105" s="5">
         <v>6282237485077</v>
@@ -2622,10 +2622,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D106" s="5">
         <v>6285641163009</v>
@@ -2636,10 +2636,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D107" s="5">
         <v>6285253522777</v>
@@ -2650,10 +2650,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D108" s="5">
         <v>6281806384838</v>
@@ -2664,10 +2664,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C109" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D109" s="5">
         <v>6281221116657</v>
@@ -2678,10 +2678,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" s="5">
         <v>6285391769448</v>
@@ -2692,10 +2692,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D111" s="5">
         <v>6281347055768</v>
@@ -2706,7 +2706,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C112" t="s">
         <v>4</v>
@@ -2720,10 +2720,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D113" s="5">
         <v>6287798977746</v>
@@ -2734,7 +2734,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2748,10 +2748,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D115" s="5">
         <v>6287874813669</v>
@@ -2762,7 +2762,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2776,10 +2776,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D117" s="5">
         <v>6282112111271</v>
@@ -2790,10 +2790,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C118" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D118" s="5">
         <v>6282225360912</v>
@@ -2804,10 +2804,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D119" s="5">
         <v>6282186557752</v>
@@ -2818,7 +2818,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2832,10 +2832,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D121" s="5">
         <v>6285540614923</v>
@@ -2846,7 +2846,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2860,7 +2860,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2874,10 +2874,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" s="5">
         <v>6285311984617</v>
@@ -2888,10 +2888,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D125" s="5">
         <v>6285269800999</v>
@@ -2902,10 +2902,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C126" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D126" s="5">
         <v>6285299342686</v>
@@ -2916,10 +2916,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C127" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D127" s="5">
         <v>6285261506422</v>
@@ -2930,10 +2930,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D128" s="5">
         <v>628122669550</v>
@@ -2944,10 +2944,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C129" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D129" s="5">
         <v>628111885889</v>
@@ -2958,10 +2958,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C130" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D130" s="5">
         <v>6281256188902</v>
@@ -2972,10 +2972,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C131" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D131" s="5">
         <v>6288704634370</v>
@@ -2986,10 +2986,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C132" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D132" s="5">
         <v>6281331573307</v>
@@ -3000,10 +3000,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C133" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D133" s="5">
         <v>6287878762975</v>
@@ -3014,10 +3014,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C134" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D134" s="5">
         <v>6281227509033</v>
@@ -3028,10 +3028,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C135" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D135" s="5">
         <v>6289603374874</v>
@@ -3042,10 +3042,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C136" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D136" s="5">
         <v>6285737099012</v>
@@ -3056,10 +3056,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C137" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D137" s="5">
         <v>6281225813924</v>
@@ -3070,10 +3070,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C138" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D138" s="5">
         <v>6282276004047</v>
@@ -3084,10 +3084,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C139" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D139" s="5">
         <v>6285369342985</v>
@@ -3098,10 +3098,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C140" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D140" s="5">
         <v>6281365711852</v>
@@ -3112,10 +3112,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C141" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D141" s="5">
         <v>6281314782176</v>
@@ -3126,10 +3126,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C142" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D142" s="5">
         <v>6282191581420</v>
@@ -3140,10 +3140,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C143" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D143" s="5">
         <v>6281379457566</v>
@@ -3154,10 +3154,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C144" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D144" s="5">
         <v>6285287429266</v>
@@ -3168,10 +3168,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C145" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D145" s="5">
         <v>6282299079674</v>
@@ -3182,10 +3182,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C146" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D146" s="5">
         <v>6285314661131</v>
@@ -3196,7 +3196,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3210,10 +3210,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C148" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D148" s="5">
         <v>6283135233166</v>
@@ -3224,10 +3224,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C149" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D149" s="5">
         <v>6282296120509</v>
@@ -3238,10 +3238,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C150" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D150" s="5">
         <v>6281330545222</v>
@@ -3252,10 +3252,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C151" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D151" s="5">
         <v>6282110580889</v>
@@ -3266,7 +3266,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C152" t="s">
         <v>4</v>
@@ -3280,10 +3280,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C153" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D153" s="5">
         <v>6285959030900</v>
@@ -3294,7 +3294,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
@@ -3308,10 +3308,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D155" s="5">
         <v>6285247574447</v>
@@ -3322,7 +3322,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3336,10 +3336,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C157" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D157" s="5">
         <v>6281211813734</v>
@@ -3350,10 +3350,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C158" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D158" s="5">
         <v>6285704922286</v>
@@ -3364,10 +3364,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C159" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D159" s="5">
         <v>6281349542422</v>
@@ -3378,10 +3378,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C160" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D160" s="5">
         <v>6281339240987</v>
@@ -3392,10 +3392,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C161" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D161" s="5">
         <v>6285393436000</v>
@@ -3406,10 +3406,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C162" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D162" s="5">
         <v>6285250209426</v>
@@ -3420,10 +3420,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C163" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D163" s="5">
         <v>6285216020559</v>
@@ -3434,10 +3434,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C164" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D164" s="5">
         <v>6281321962140</v>
@@ -3448,10 +3448,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C165" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D165" s="5">
         <v>6285648924330</v>
@@ -3462,10 +3462,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C166" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D166" s="5">
         <v>6282231516706</v>
@@ -3476,10 +3476,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C167" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D167" s="5">
         <v>6281243875337</v>
@@ -3490,10 +3490,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C168" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D168" s="5">
         <v>6287715765221</v>
@@ -3504,10 +3504,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C169" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D169" s="5">
         <v>6285643504580</v>
@@ -3518,10 +3518,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C170" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D170" s="5">
         <v>6285341935157</v>
@@ -3532,10 +3532,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C171" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D171" s="5">
         <v>6285385671664</v>
@@ -3546,10 +3546,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C172" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D172" s="5">
         <v>628158910888</v>
@@ -3560,10 +3560,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C173" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D173" s="5">
         <v>6285366609726</v>
@@ -3574,10 +3574,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C174" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D174" s="5">
         <v>6282246870615</v>
@@ -3588,10 +3588,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C175" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D175" s="5">
         <v>6285713473007</v>
@@ -3602,10 +3602,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D176" s="5">
         <v>6285269533302</v>
@@ -3616,10 +3616,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C177" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D177" s="5">
         <v>6281253163961</v>
@@ -3630,10 +3630,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C178" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D178" s="5">
         <v>6285646311673</v>
@@ -3644,10 +3644,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C179" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D179" s="5">
         <v>6281367696749</v>
@@ -3658,10 +3658,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C180" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D180" s="5">
         <v>6285370599939</v>
@@ -3672,10 +3672,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C181" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D181" s="5">
         <v>6281232318898</v>
@@ -3686,7 +3686,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3700,10 +3700,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C183" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D183" s="5">
         <v>6282250367965</v>
@@ -3714,10 +3714,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C184" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D184" s="5">
         <v>6285216528057</v>
@@ -3728,10 +3728,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C185" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D185" s="5">
         <v>6282220730324</v>
@@ -3742,10 +3742,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C186" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D186" s="5">
         <v>628129479435</v>
@@ -3756,10 +3756,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C187" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D187" s="5">
         <v>6281316409430</v>
@@ -3770,7 +3770,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3784,10 +3784,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C189" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D189" s="5">
         <v>6285223195964</v>
@@ -3798,10 +3798,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C190" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D190" s="5">
         <v>6285279976833</v>
@@ -3812,10 +3812,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C191" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D191" s="5">
         <v>6281289266342</v>
@@ -3826,10 +3826,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C192" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D192" s="5">
         <v>62811829610</v>
@@ -3840,10 +3840,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C193" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D193" s="5">
         <v>6281343241892</v>
@@ -3854,7 +3854,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C194" t="s">
         <v>4</v>
@@ -3868,10 +3868,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C195" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D195" s="5">
         <v>6282223893451</v>
@@ -3882,10 +3882,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C196" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D196" s="5">
         <v>6281214039974</v>
@@ -3896,10 +3896,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C197" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D197" s="5">
         <v>6281515761999</v>
@@ -3910,10 +3910,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C198" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D198" s="5">
         <v>6282210111601</v>
@@ -3924,10 +3924,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C199" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D199" s="5">
         <v>6285394727753</v>
@@ -3938,10 +3938,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C200" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D200" s="5">
         <v>6281346642145</v>
@@ -3952,10 +3952,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C201" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D201" s="5">
         <v>6285607234099</v>
@@ -3966,10 +3966,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C202" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D202" s="5">
         <v>6282255045159</v>
@@ -3980,10 +3980,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C203" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D203" s="5">
         <v>6285717650250</v>
@@ -3994,10 +3994,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C204" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D204" s="5">
         <v>6285603461558</v>
@@ -4008,10 +4008,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C205" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D205" s="5">
         <v>6285793879206</v>
@@ -4022,10 +4022,10 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C206" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D206" s="5">
         <v>6282296401441</v>
@@ -4036,10 +4036,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C207" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D207" s="5">
         <v>6282217495652</v>
@@ -4050,10 +4050,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C208" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D208" s="5">
         <v>6285232111622</v>
@@ -4064,10 +4064,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C209" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D209" s="5">
         <v>6281316700026</v>
@@ -4078,10 +4078,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C210" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D210" s="5">
         <v>628111365577</v>
@@ -4092,10 +4092,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C211" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D211" s="5">
         <v>62811122100</v>
@@ -4106,10 +4106,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D212" s="5">
         <v>6285165205819</v>
@@ -4120,10 +4120,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D213" s="5">
         <v>6282324288028</v>
@@ -4134,10 +4134,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C214" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D214" s="5">
         <v>6282332234256</v>
@@ -4148,10 +4148,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C215" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D215" s="5">
         <v>6281241864118</v>
@@ -4162,10 +4162,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C216" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D216" s="5">
         <v>6285214875050</v>
@@ -4176,10 +4176,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C217" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D217" s="5">
         <v>6281363344234</v>
@@ -4190,10 +4190,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C218" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D218" s="5">
         <v>6281228746380</v>
@@ -4204,10 +4204,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C219" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D219" s="5">
         <v>6285379373861</v>
@@ -4218,10 +4218,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C220" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D220" s="5">
         <v>6285729299393</v>
@@ -4232,10 +4232,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C221" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D221" s="5">
         <v>6281324380618</v>
@@ -4246,10 +4246,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C222" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D222" s="5">
         <v>6281388543819</v>
@@ -4260,10 +4260,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C223" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D223" s="5">
         <v>6281222737105</v>
@@ -4274,10 +4274,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C224" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D224" s="5">
         <v>6285749136407</v>
@@ -4288,7 +4288,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C225" t="s">
         <v>4</v>
@@ -4302,10 +4302,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C226" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D226" s="5">
         <v>6282253181510</v>
@@ -4316,10 +4316,10 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C227" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D227" s="5">
         <v>6287865077600</v>
@@ -4330,10 +4330,10 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C228" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D228" s="5">
         <v>6282349633404</v>
@@ -4344,10 +4344,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C229" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D229" s="5">
         <v>6285377308904</v>
@@ -4358,10 +4358,10 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C230" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D230" s="5">
         <v>6282346674009</v>
@@ -4372,10 +4372,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C231" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D231" s="5">
         <v>62895616084211</v>
@@ -4386,10 +4386,10 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C232" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D232" s="5">
         <v>6285348482477</v>
@@ -4400,10 +4400,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C233" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D233" s="5">
         <v>6281369176646</v>
@@ -4414,19 +4414,17 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
       <c r="C234" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D234" s="5">
         <v>628119998099</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
-      <c r="B235" s="4"/>
-      <c r="D235" s="5"/>
+      <c r="B235" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4447,7 +4445,7 @@
   <conditionalFormatting sqref="D2:D234">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D235">
+  <conditionalFormatting sqref="B235">
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
   </conditionalFormatting>
